--- a/rev_b/hdw/Pulse_Oximeter/Pulse_Oximeter_bom_B_development.xlsx
+++ b/rev_b/hdw/Pulse_Oximeter/Pulse_Oximeter_bom_B_development.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drew Maatman\Documents\KiCad Projects\Projects\pulse_oximeter\hdw\rev_b\Pulse_Oximeter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drew Maatman\Documents\KiCad Projects\Projects\pulse_oximeter\rev_b\hdw\Pulse_Oximeter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{046CFC1F-91D8-4258-9832-78557646710E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9A57D1-7325-42F4-B172-76AEEEC568D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pulse_Oximeter_bom_B" sheetId="1" r:id="rId1"/>
@@ -244,9 +244,6 @@
     <t>RMCF0402FT27R0CT-ND</t>
   </si>
   <si>
-    <t>R407 R603 R604 R801 R803 R1003 R1603</t>
-  </si>
-  <si>
     <t>RMCF0402FT100RCT-ND</t>
   </si>
   <si>
@@ -271,9 +268,6 @@
     <t>RMCF0402FT6K04CT-ND</t>
   </si>
   <si>
-    <t>R202 R205 R206 R212 R214 R218 R219 R220 R401 R403 R404 R405 R406 R601 R602 R802 R804 R1001 R1004 R1101 R1102 R1501 R1502 R1505 R1506 R1507 R1601 R1602 R1604 R1605 R1606 R1607 R1609 R1610 R1611 R1612 R1613 R1614 R1615 R1703 R1704 R1705 R1801 R1901 R1902 R1905 R1906 R2001 R2003</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
@@ -470,12 +464,18 @@
   </si>
   <si>
     <t>296-22862-1-ND</t>
+  </si>
+  <si>
+    <t>R407 R603 R604 R801 R803 R1003 R1604</t>
+  </si>
+  <si>
+    <t>R202 R205 R206 R212 R214 R218 R219 R220 R401 R403 R404 R405 R406 R601 R602 R802 R804 R1001 R1004 R1101 R1102 R1501 R1502 R1505 R1506 R1507 R1601 R1602 R1603 R1605 R1606 R1607 R1609 R1610 R1611 R1612 R1613 R1614 R1615 R1703 R1704 R1705 R1801 R1901 R1902 R1905 R1906 R2001 R2003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1316,11 +1316,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1616,7 +1616,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>63</v>
       </c>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="B31" s="1">
         <v>100</v>
@@ -1819,22 +1819,22 @@
         <v>7</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>8</v>
@@ -1842,31 +1842,31 @@
     </row>
     <row r="33" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="1">
         <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>8</v>
@@ -1874,31 +1874,31 @@
     </row>
     <row r="35" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C35" s="1">
         <v>49</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>8</v>
@@ -1906,16 +1906,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>8</v>
@@ -1923,42 +1923,42 @@
     </row>
     <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C38" s="1">
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -1968,10 +1968,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -1981,91 +1981,91 @@
     </row>
     <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C42" s="1">
         <v>5</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C43" s="1">
         <v>2</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C44" s="1">
         <v>4</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>19</v>
@@ -2073,27 +2073,27 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -2101,176 +2101,176 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C50" s="1">
         <v>4</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C52" s="1">
         <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="E60" s="1"/>
     </row>
